--- a/va_facility_data_2025-02-20/Yakima Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Yakima%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Yakima Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Yakima%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2fb839b314fc49789296449379d03aed"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R71c909d6d9c5487eb870456bbe5e5315"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfa19ab35898e4c25bc8298adde35021e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R614fe932de964959a27407c3b12a5401"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3f7d9d4535b14a0db5ec8bb0f558d303"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rffd0c6edf9ef488c9dd17e2cac2add34"/>
   </x:sheets>
 </x:workbook>
 </file>
